--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1702.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1702.xlsx
@@ -354,7 +354,7 @@
         <v>0.687813575366393</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.676060978468947</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1702.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1702.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3618893834377354</v>
+        <v>0.6495413184165955</v>
       </c>
       <c r="B1">
-        <v>0.687813575366393</v>
+        <v>2.159087896347046</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.676060978468947</v>
+        <v>1.054647922515869</v>
       </c>
       <c r="E1">
-        <v>1.808970041239347</v>
+        <v>1.162374138832092</v>
       </c>
     </row>
   </sheetData>
